--- a/regression materials/softserve scatter.xlsx
+++ b/regression materials/softserve scatter.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marsharichins/Documents/FILES/SCHOOL MISC/MKT 4050/LECTURES REMOTE/21-supporting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\regression materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6BD80F-44EF-CC41-BB4D-174CD7EC1BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F73580-18F3-4BE9-A98D-C5DE3D792A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="1160" windowWidth="25320" windowHeight="18160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>no regression line</t>
   </si>
@@ -34,13 +45,88 @@
   </si>
   <si>
     <t>Ounces</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -73,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -81,6 +175,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -197,9 +311,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1450,24 +1572,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAA3C8-4B70-4EEC-A5C6-6FF4CF9ED488}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.80209490427016672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.64335623545616794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.62784998482382737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.6342798997776842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C12" s="2">
+        <v>110.8147558112008</v>
+      </c>
+      <c r="D12" s="2">
+        <v>110.8147558112008</v>
+      </c>
+      <c r="E12" s="2">
+        <v>41.490122319727995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.4244453127205321E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>61.430028188799213</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.6708707908173572</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <v>172.24478400000001</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-1.3057479090242072</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.98813262661607248</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1.3214298099798909</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.19935318942045022</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-3.3498559871769102</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.73836016912849578</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-3.3498559871769102</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.73836016912849578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.11640596722915131</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.8071861359662319E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6.4412826610643279</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.4244453127205425E-6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7.9021473693047906E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.15379046076525471</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7.9021473693047906E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.15379046076525471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B73735-9945-43E8-8ED2-07FDEE71CE3B}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.80209490427016672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.64335623545616794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.62784998482382737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.6342798997776842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>110.8147558112008</v>
+      </c>
+      <c r="D12" s="2">
+        <v>110.8147558112008</v>
+      </c>
+      <c r="E12" s="2">
+        <v>41.490122319727995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.4244453127205321E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>61.430028188799213</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.6708707908173572</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <v>172.24478400000001</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-1.3057479090242072</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.98813262661607248</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1.3214298099798909</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.19935318942045022</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-3.3498559871769102</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.73836016912849578</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-3.3498559871769102</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.73836016912849578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.11640596722915131</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.8071861359662319E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6.4412826610643279</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.4244453127205425E-6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7.9021473693047906E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.15379046076525471</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7.9021473693047906E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.15379046076525471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:B68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
@@ -1475,7 +2057,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31</v>
       </c>
@@ -1483,7 +2065,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>57</v>
       </c>
@@ -1491,7 +2073,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
@@ -1499,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57</v>
       </c>
@@ -1507,7 +2089,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>75</v>
       </c>
@@ -1515,7 +2097,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>55</v>
       </c>
@@ -1523,7 +2105,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -1531,7 +2113,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
@@ -1539,7 +2121,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>71</v>
       </c>
@@ -1547,7 +2129,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -1555,7 +2137,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1563,7 +2145,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>72</v>
       </c>
@@ -1571,7 +2153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69</v>
       </c>
@@ -1579,7 +2161,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1587,7 +2169,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1595,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>48</v>
       </c>
@@ -1603,7 +2185,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -1611,7 +2193,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>61</v>
       </c>
@@ -1619,7 +2201,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>66</v>
       </c>
@@ -1627,7 +2209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
@@ -1635,7 +2217,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>70</v>
       </c>
@@ -1643,7 +2225,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>64</v>
       </c>
@@ -1651,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>37</v>
       </c>
@@ -1659,7 +2241,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45</v>
       </c>
@@ -1667,12 +2249,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1680,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1688,7 +2270,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>31</v>
       </c>
@@ -1696,7 +2278,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -1704,7 +2286,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -1712,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -1720,7 +2302,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>75</v>
       </c>
@@ -1728,7 +2310,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -1736,7 +2318,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45</v>
       </c>
@@ -1744,7 +2326,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1752,7 +2334,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>71</v>
       </c>
@@ -1760,7 +2342,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>65</v>
       </c>
@@ -1768,7 +2350,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -1776,7 +2358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>72</v>
       </c>
@@ -1784,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>69</v>
       </c>
@@ -1792,7 +2374,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -1800,7 +2382,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -1808,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>48</v>
       </c>
@@ -1816,7 +2398,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>55</v>
       </c>
@@ -1824,7 +2406,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1832,7 +2414,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>66</v>
       </c>
@@ -1840,7 +2422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>75</v>
       </c>
@@ -1848,7 +2430,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>70</v>
       </c>
@@ -1856,7 +2438,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1864,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>37</v>
       </c>
@@ -1872,7 +2454,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45</v>
       </c>
